--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016488.91778236</v>
+        <v>-1019169.780845768</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>143.1055285325494</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.2403189156676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>45.91277054303279</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>136.1812963327086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>117.2878834656128</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.9300270440847</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.58912478144784</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>60.62068883768595</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>14.32580002787341</v>
       </c>
       <c r="H8" t="n">
-        <v>253.237323896726</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>157.7340602259366</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.19091675188771</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>65.38324202937314</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343133</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>97.75513637219839</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7058473537592</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923952</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>174.1038648891274</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.54881804343173</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725558</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>78.68827782033955</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652695</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308927</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.7614503848</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.798933444388</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,13 +4331,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2293.089082004859</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2039.508021269039</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2039.508021269039</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1686.739365998925</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.500622424734</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.361290448922</v>
+        <v>1313.273607737845</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.0245808582381</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>722.0141317562554</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X4" t="n">
-        <v>494.0245808582381</v>
+        <v>633.2923138032183</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.0245808582381</v>
+        <v>412.4997346596882</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.9810522552812</v>
+        <v>1005.344648689698</v>
       </c>
       <c r="C5" t="n">
-        <v>522.0185353148695</v>
+        <v>1005.344648689698</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>647.0789500829474</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>647.0789500829474</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>236.0930452933398</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1395.48398066551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1277.580892319403</v>
+        <v>1005.344648689698</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476953</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2580926322059</v>
+        <v>687.024971736461</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2580926322059</v>
+        <v>518.0887888085541</v>
       </c>
       <c r="D7" t="n">
-        <v>202.1414532198702</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1414532198702</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302233</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322059</v>
+        <v>1089.466015710231</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322059</v>
+        <v>868.6734365667007</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.042027525391</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.07951058498</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="D8" t="n">
-        <v>777.8138119782291</v>
+        <v>543.0768456003823</v>
       </c>
       <c r="E8" t="n">
-        <v>392.0255593799848</v>
+        <v>543.0768456003823</v>
       </c>
       <c r="F8" t="n">
-        <v>385.0800586307814</v>
+        <v>132.0909408107747</v>
       </c>
       <c r="G8" t="n">
-        <v>373.4157123954743</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.042027525391</v>
+        <v>901.3425442071327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>483.0441129489463</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1598.630441511905</v>
+        <v>675.5671717315228</v>
       </c>
       <c r="C10" t="n">
-        <v>1598.630441511905</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>1448.513802099569</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>1378.623987198673</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>1231.734039700762</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>1231.734039700762</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>1082.995141564269</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>977.1399948936619</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>2365.710580560017</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>2142.732099754753</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>2142.732099754753</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1888.047611548866</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W10" t="n">
-        <v>1598.630441511905</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="X10" t="n">
-        <v>1598.630441511905</v>
+        <v>896.3597508750529</v>
       </c>
       <c r="Y10" t="n">
-        <v>1598.630441511905</v>
+        <v>675.5671717315228</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204176</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380245</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401141</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5598,19 +5598,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371523</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715721</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.285961605313</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231797</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401492</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580125</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345487</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150035</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942666</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7090,55 +7090,55 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,13 +7807,13 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7825,19 +7825,19 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417435</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921329</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107919</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5911984019041</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-5.458725572646025e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.3061252733377</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.35983168384691</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>63.5526564476844</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4907817628015</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>150.3417020038824</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>83.2711496294462</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.728115292809946</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>194.8566322838565</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642495</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>207.8347205162515</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-2.502146765717628e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1029962.485947364</v>
+        <v>1029962.485947363</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1218039.227115158</v>
+        <v>1218039.227115157</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1218039.227115158</v>
+        <v>1218039.227115157</v>
       </c>
     </row>
     <row r="12">
@@ -26314,37 +26314,37 @@
         <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="G2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="K2" t="n">
-        <v>201786.6499225015</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472621</v>
+        <v>52108.58832472609</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426732016</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731987</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731993</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731995</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982542</v>
       </c>
       <c r="N4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982541</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090546.003446169</v>
+        <v>-1090906.086461887</v>
       </c>
       <c r="C6" t="n">
+        <v>-21995.33023563761</v>
+      </c>
+      <c r="D6" t="n">
         <v>-21995.33023563749</v>
       </c>
-      <c r="D6" t="n">
-        <v>-21995.33023563754</v>
-      </c>
       <c r="E6" t="n">
-        <v>-414938.6339526832</v>
+        <v>-414973.3718781192</v>
       </c>
       <c r="F6" t="n">
-        <v>92546.80767186249</v>
+        <v>92512.06974642676</v>
       </c>
       <c r="G6" t="n">
-        <v>92546.80767186245</v>
+        <v>92512.06974642693</v>
       </c>
       <c r="H6" t="n">
-        <v>92546.80767186244</v>
+        <v>92512.06974642647</v>
       </c>
       <c r="I6" t="n">
-        <v>92546.80767186244</v>
+        <v>92512.06974642674</v>
       </c>
       <c r="J6" t="n">
-        <v>-75058.37013812011</v>
+        <v>-75093.10806355585</v>
       </c>
       <c r="K6" t="n">
-        <v>92546.80767186241</v>
+        <v>92512.0697464268</v>
       </c>
       <c r="L6" t="n">
-        <v>66560.43692869844</v>
+        <v>66560.43692869853</v>
       </c>
       <c r="M6" t="n">
-        <v>-46619.13880659657</v>
+        <v>-46619.13880659639</v>
       </c>
       <c r="N6" t="n">
+        <v>85988.15492233008</v>
+      </c>
+      <c r="O6" t="n">
+        <v>85988.15492233004</v>
+      </c>
+      <c r="P6" t="n">
         <v>85988.15492233002</v>
-      </c>
-      <c r="O6" t="n">
-        <v>85988.15492233002</v>
-      </c>
-      <c r="P6" t="n">
-        <v>85988.15492233</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.712427289067648</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.09238371494746</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>133.9192096389045</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>294.2598193073412</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.3079116119689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8319232414834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>165.0889665513512</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>397.2219027450806</v>
       </c>
       <c r="H8" t="n">
-        <v>47.78122866567941</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>9.512760872691246</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.24304589468146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32318,31 +32318,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963288</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652758</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>528.9386420741735</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>319.7101787446115</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>373.1786946453889</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899035</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060454</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164546</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
